--- a/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -32,6 +32,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -113,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="191">
   <si>
     <t>Sorting</t>
   </si>
@@ -233,6 +237,9 @@
   </si>
   <si>
     <t>To include in first calculation?</t>
+  </si>
+  <si>
+    <t>Target Execution 2018</t>
   </si>
   <si>
     <t>RD38010007</t>
@@ -265,10 +272,10 @@
 5</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л стекло</t>
+    <t>Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л стекло</t>
   </si>
   <si>
     <t>number of facings</t>
@@ -289,10 +296,10 @@
     <t>BINARY</t>
   </si>
   <si>
-    <t>Coca-Cola Zero - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.25л стекло</t>
+    <t>Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л стекло</t>
   </si>
   <si>
     <t>Sprite - 0.25L Glass</t>
@@ -657,7 +664,7 @@
     <t>ХО Заполнен</t>
   </si>
   <si>
-    <t>number of doors of filled Coolers</t>
+    <t>number of filled Coolers (scenes)</t>
   </si>
   <si>
     <t>TCCC</t>
@@ -712,7 +719,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -782,6 +789,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -856,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -879,6 +893,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -912,11 +933,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -929,7 +950,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,54 +1050,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1121,7 +1158,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1165,7 +1202,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1193,7 +1230,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1241,15 +1278,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,15 +1368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1869840</xdr:colOff>
+      <xdr:colOff>1949400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1348,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13035960" cy="8910720"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14339520" cy="8909280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,15 +1413,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1869840</xdr:colOff>
+      <xdr:colOff>1949400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1393,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13035960" cy="8910720"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14339520" cy="8909280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,15 +1458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1869840</xdr:colOff>
+      <xdr:colOff>1949400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1438,8 +1475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13035960" cy="8910720"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14339520" cy="8909280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1869840</xdr:colOff>
+      <xdr:colOff>1949400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1483,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13035960" cy="8910720"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14339520" cy="8909280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,54 +1554,54 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="65.0976744186047"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="1" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="55.6232558139535"/>
-    <col collapsed="false" hidden="false" max="37" min="35" style="4" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="73.0976744186047"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="40.4883720930233"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="28.9209302325581"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="27" min="25" style="1" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="20.7953488372093"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="34.4558139534884"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="62.3906976744186"/>
+    <col collapsed="false" hidden="false" max="37" min="35" style="4" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="28.9209302325581"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1686,31 +1723,34 @@
       <c r="AO1" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -1733,10 +1773,10 @@
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
       <c r="AC2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="AE2" s="22"/>
       <c r="AF2" s="15"/>
@@ -1751,410 +1791,415 @@
         <v>1</v>
       </c>
       <c r="AM2" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="27"/>
       <c r="AO2" s="10"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>50</v>
       </c>
+      <c r="G3" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="30" t="n">
-        <v>54490086</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="L3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="31" t="n">
+        <v>50112128</v>
+      </c>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="33" t="n">
         <v>0.059994</v>
       </c>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
       <c r="AK3" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL3" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="35"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>58</v>
       </c>
+      <c r="G4" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="H4" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="37" t="n">
-        <v>90338120</v>
-      </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="L4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="31" t="n">
+        <v>90375408</v>
+      </c>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" s="20"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
       <c r="AC4" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE4" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="33" t="n">
         <v>0.059994</v>
       </c>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
       <c r="AK4" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL4" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO4" s="35"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="29" t="s">
         <v>60</v>
       </c>
+      <c r="G5" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H5" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="30" t="n">
+      <c r="L5" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="39" t="n">
         <v>54490970</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE5" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="33" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
       <c r="AK5" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL5" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>62</v>
       </c>
+      <c r="G6" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="30" t="n">
+      <c r="L6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="43" t="n">
         <v>40822341</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE6" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="33" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
       <c r="AK6" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL6" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO6" s="35"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="28"/>
     </row>
-    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="40" t="s">
         <v>41</v>
       </c>
+      <c r="C7" s="44" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="40" t="s">
+      <c r="G7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
       <c r="AK7" s="24" t="n">
         <v>2</v>
       </c>
@@ -2162,325 +2207,329 @@
         <v>6</v>
       </c>
       <c r="AM7" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN7" s="27"/>
       <c r="AO7" s="10"/>
+      <c r="AP7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="30" t="n">
+      <c r="L8" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="43" t="n">
         <v>90418822</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE8" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE8" s="33" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL8" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO8" s="35"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>70</v>
       </c>
+      <c r="G9" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H9" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="30" t="n">
+      <c r="L9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="43" t="n">
         <v>90382741</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE9" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE9" s="33" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL9" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO9" s="35"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>72</v>
       </c>
+      <c r="G10" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="H10" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="30" t="n">
+      <c r="L10" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="43" t="n">
         <v>5449000196972</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE10" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE10" s="33" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
       <c r="AK10" s="24" t="n">
         <v>3</v>
       </c>
       <c r="AL10" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO10" s="35"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="40" t="s">
         <v>41</v>
       </c>
+      <c r="C11" s="44" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="40" t="s">
+      <c r="G11" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
       <c r="AK11" s="24" t="n">
         <v>2</v>
       </c>
@@ -2488,306 +2537,310 @@
         <v>10</v>
       </c>
       <c r="AM11" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="27"/>
-      <c r="AO11" s="35"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>77</v>
       </c>
+      <c r="G12" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="30" t="n">
+      <c r="L12" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="43" t="n">
         <v>4650075420362</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z12" s="20"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
       <c r="AC12" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE12" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE12" s="33" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="52" t="n">
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL12" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO12" s="35"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>79</v>
       </c>
+      <c r="G13" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="30" t="n">
+      <c r="L13" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="43" t="n">
         <v>4650075420386</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z13" s="20"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
       <c r="AC13" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD13" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE13" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE13" s="33" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="52" t="n">
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL13" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO13" s="35"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>81</v>
       </c>
+      <c r="G14" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="H14" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="20" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="30" t="n">
+      <c r="L14" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="43" t="n">
         <v>4650075420409</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
       <c r="AC14" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE14" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE14" s="33" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="52" t="n">
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="56" t="n">
         <v>3</v>
       </c>
       <c r="AL14" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO14" s="35"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="53" t="s">
+      <c r="C15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="53" t="s">
         <v>86</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33" t="s">
-        <v>54</v>
+      <c r="V15" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
@@ -2795,11 +2848,11 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD15" s="33" t="s">
-        <v>86</v>
+      <c r="AC15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
@@ -2807,1956 +2860,1992 @@
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
-      <c r="AK15" s="35" t="n">
+      <c r="AK15" s="36" t="n">
         <v>2</v>
       </c>
       <c r="AL15" s="25" t="n">
         <v>14</v>
       </c>
       <c r="AM15" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN15" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="AN15" s="60"/>
       <c r="AO15" s="10"/>
+      <c r="AP15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="58" t="s">
+      <c r="E16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="34" t="n">
+      <c r="G16" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="60" t="n">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="64" t="n">
         <v>509987300136059</v>
       </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R16" s="33" t="s">
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33" t="s">
+      <c r="R16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33" t="s">
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" s="33" t="s">
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AE16" s="63" t="n">
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE16" s="67" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="64" t="n">
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL16" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO16" s="35"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="54" t="s">
+      <c r="C17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="58" t="s">
+      <c r="E17" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="34" t="n">
+      <c r="G17" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="60" t="n">
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="64" t="n">
         <v>4607174573314</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="33" t="s">
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33" t="s">
+      <c r="R17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33" t="s">
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="33" t="s">
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="63" t="n">
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE17" s="67" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="64" t="n">
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL17" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO17" s="35"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="54" t="s">
+      <c r="C18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="58" t="s">
+      <c r="E18" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="34" t="n">
+      <c r="G18" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="60" t="n">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="64" t="n">
         <v>4607174573338</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="33" t="s">
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33" t="s">
+      <c r="R18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33" t="s">
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD18" s="33" t="s">
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="63" t="n">
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE18" s="67" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="64" t="n">
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL18" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO18" s="35"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="65" t="s">
+      <c r="D19" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="F19" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="34" t="n">
+      <c r="G19" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="33" t="s">
-        <v>97</v>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X19" s="33" t="s">
+      <c r="R19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE19" s="63" t="n">
+      <c r="X19" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="67" t="n">
         <v>0.15</v>
       </c>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="64" t="n">
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64" t="n">
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL19" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="65" t="s">
+      <c r="D20" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="F20" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="33" t="n">
+      <c r="H20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE20" s="68" t="n">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE20" s="72" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="64" t="n">
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL20" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="AM20" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
+      <c r="AM20" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="70" t="s">
+      <c r="D21" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="34" t="n">
+      <c r="G21" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="33" t="s">
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="N21" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33" t="s">
-        <v>52</v>
+      <c r="M21" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE21" s="68" t="n">
+      <c r="S21" s="34"/>
+      <c r="T21" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE21" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="64" t="n">
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL21" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO21" s="35"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="70" t="s">
+      <c r="D22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="34" t="n">
+      <c r="G22" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R22" s="33" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="71" t="s">
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X22" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE22" s="68" t="n">
+      <c r="S22" s="34"/>
+      <c r="T22" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE22" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="64" t="n">
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL22" s="25" t="n">
         <v>21</v>
       </c>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO22" s="35"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="70" t="s">
+      <c r="D23" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="69" t="s">
         <v>119</v>
       </c>
+      <c r="G23" s="74" t="s">
+        <v>120</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="71" t="n">
+        <v>121</v>
+      </c>
+      <c r="I23" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="33" t="s">
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="N23" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" s="33" t="s">
+      <c r="M23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33" t="s">
-        <v>52</v>
+      <c r="N23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X23" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE23" s="68" t="n">
+        <v>125</v>
+      </c>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE23" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="64" t="n">
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL23" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO23" s="35"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="C24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="65" t="s">
+      <c r="D24" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="34" t="n">
+      <c r="G24" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X24" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE24" s="68" t="n">
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE24" s="72" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="64" t="n">
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL24" s="25" t="n">
         <v>23</v>
       </c>
-      <c r="AM24" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
+      <c r="AM24" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="70" t="s">
+      <c r="D25" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="34" t="n">
+      <c r="G25" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X25" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD25" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE25" s="68" t="n">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE25" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="64" t="n">
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL25" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO25" s="35"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="C26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="70" t="s">
+      <c r="D26" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="34" t="n">
+      <c r="G26" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="U26" s="33"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X26" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD26" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE26" s="68" t="n">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="34"/>
+      <c r="T26" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE26" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="64" t="n">
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL26" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO26" s="35"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="C27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="65" t="s">
+      <c r="D27" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="F27" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="34" t="n">
+      <c r="G27" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X27" s="33" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD27" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" s="68" t="n">
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD27" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE27" s="72" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="64" t="n">
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL27" s="25" t="n">
         <v>26</v>
       </c>
-      <c r="AM27" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
+      <c r="AM27" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="40" t="s">
+      <c r="D28" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="34" t="n">
+      <c r="G28" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="M28" s="33" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="N28" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33" t="s">
+      <c r="M28" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="33" t="s">
-        <v>52</v>
+      <c r="N28" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X28" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD28" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE28" s="68" t="n">
+        <v>147</v>
+      </c>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE28" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="64" t="n">
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL28" s="25" t="n">
         <v>27</v>
       </c>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO28" s="35"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="40" t="s">
+      <c r="D29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="34" t="n">
+      <c r="G29" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R29" s="33" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X29" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE29" s="68" t="n">
+      <c r="R29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="34"/>
+      <c r="T29" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X29" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE29" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="64" t="n">
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL29" s="25" t="n">
         <v>28</v>
       </c>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO29" s="35"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="40" t="s">
+      <c r="D30" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="34" t="n">
+      <c r="G30" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X30" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD30" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE30" s="68" t="n">
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE30" s="72" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="64" t="n">
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL30" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="AM30" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
+      <c r="AM30" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="40" t="s">
+      <c r="D31" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="34" t="n">
+      <c r="G31" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="M31" s="74" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R31" s="33" t="s">
+      <c r="M31" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X31" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD31" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE31" s="68" t="n">
+      <c r="R31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE31" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="64" t="n">
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL31" s="25" t="n">
         <v>30</v>
       </c>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO31" s="35"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="40" t="s">
+      <c r="D32" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="34" t="n">
+      <c r="G32" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="M32" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R32" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X32" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD32" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE32" s="68" t="n">
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE32" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="64" t="n">
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL32" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO32" s="35"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="C33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="40" t="s">
+      <c r="D33" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="34" t="n">
+      <c r="G33" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="M33" s="33" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="N33" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>52</v>
+      <c r="M33" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="X33" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD33" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE33" s="68" t="n">
+        <v>147</v>
+      </c>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE33" s="72" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="64" t="n">
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL33" s="25" t="n">
         <v>32</v>
       </c>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="65" t="s">
+      <c r="C34" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="F34" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="71" t="n">
+      <c r="G34" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD34" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE34" s="68" t="n">
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE34" s="72" t="n">
         <v>0.2</v>
       </c>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="64" t="n">
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="68" t="n">
         <v>2</v>
       </c>
       <c r="AL34" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="AM34" s="69" t="s">
-        <v>167</v>
+      <c r="AM34" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="AN34" s="0"/>
-      <c r="AO34" s="35"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="70" t="s">
+      <c r="C35" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="69" t="s">
         <v>169</v>
       </c>
+      <c r="G35" s="74" t="s">
+        <v>170</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="76" t="n">
+        <v>171</v>
+      </c>
+      <c r="I35" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R35" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="X35" s="77" t="s">
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE35" s="68" t="n">
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X35" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE35" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="64" t="n">
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL35" s="25" t="n">
         <v>34</v>
       </c>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO35" s="35"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="70" t="s">
+      <c r="C36" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="69" t="s">
         <v>174</v>
       </c>
+      <c r="G36" s="74" t="s">
+        <v>175</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33" t="s">
-        <v>52</v>
+      <c r="I36" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD36" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE36" s="68" t="n">
+        <v>178</v>
+      </c>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD36" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE36" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="64" t="n">
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL36" s="25" t="n">
         <v>35</v>
       </c>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO36" s="35"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="34" t="s">
+      <c r="B37" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="70" t="s">
+      <c r="C37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="G37" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33" t="s">
-        <v>52</v>
+      <c r="H37" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD37" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE37" s="68" t="n">
+        <v>178</v>
+      </c>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE37" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="64" t="n">
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL37" s="25" t="n">
         <v>36</v>
       </c>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO37" s="35"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="40" t="s">
+      <c r="C38" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="G38" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76" t="n">
+      <c r="H38" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="80" t="n">
+      <c r="K38" s="84" t="n">
         <v>14</v>
       </c>
-      <c r="L38" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" s="34" t="s">
+      <c r="L38" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
+      <c r="R38" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
       <c r="Z38" s="20"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD38" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE38" s="68" t="n">
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD38" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE38" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="64" t="n">
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="68" t="n">
         <v>3</v>
       </c>
       <c r="AL38" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO38" s="35"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AP38"/>
@@ -4779,59 +4868,59 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="82" t="s">
+      <c r="G1" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="H1" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="82" t="s">
+      <c r="K1" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="86" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="83" t="s">
-        <v>189</v>
+      <c r="B4" s="87" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -740,7 +741,8 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">MenuC1</t>
+    <t xml:space="preserve">MenuC1
+No_MenuC1</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVATION_SSD</t>
@@ -749,10 +751,12 @@
     <t xml:space="preserve">Number of CCH activation points in SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEST</t>
+    <t xml:space="preserve">IMPU
+No_IMPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEST
+No_DEST</t>
   </si>
   <si>
     <t xml:space="preserve">PRIORITY_OCC</t>
@@ -761,13 +765,16 @@
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
   </si>
   <si>
-    <t xml:space="preserve">DO_MornC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO_MidSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_InforLu</t>
+    <t xml:space="preserve">DO_MornC
+No_DOMomC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO_MidSoc
+No_DO_MidSoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO_InforLu
+No_EO_InforLu</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -1528,9 +1535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1949040</xdr:colOff>
+      <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1540,7 +1547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18341640" cy="8581320"/>
+          <a:ext cx="18815400" cy="8580960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1949040</xdr:colOff>
+      <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1585,7 +1592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18341640" cy="8581320"/>
+          <a:ext cx="18815400" cy="8580960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,9 +1625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1949040</xdr:colOff>
+      <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1630,7 +1637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18341640" cy="8581320"/>
+          <a:ext cx="18815400" cy="8580960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,9 +1670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1949040</xdr:colOff>
+      <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1675,7 +1682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18341640" cy="8581320"/>
+          <a:ext cx="18815400" cy="8580960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,49 +1718,49 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.1581395348837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="75.3162790697674"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.7162790697674"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="1" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="23.0139534883721"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="29.6558139534884"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="3" width="21.2883720930233"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="64.2372093023256"/>
-    <col collapsed="false" hidden="false" max="39" min="37" style="4" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="29.6558139534884"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="77.6511627906977"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.9488372093023"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="1" width="17.6"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.5209302325581"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.6"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="3" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="17.6"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="66.2093023255814"/>
+    <col collapsed="false" hidden="false" max="39" min="37" style="4" width="17.6"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="17.6"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="30.5209302325581"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="17.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,6 +3715,7 @@
       <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="77" t="n">
         <v>2</v>
       </c>
@@ -4761,6 +4769,7 @@
       <c r="I35" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="J35" s="0"/>
       <c r="K35" s="82" t="n">
         <v>1</v>
       </c>
@@ -4844,6 +4853,7 @@
       <c r="I36" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="J36" s="0"/>
       <c r="K36" s="37" t="n">
         <v>1</v>
       </c>
@@ -5188,7 +5198,7 @@
       <c r="L40" s="92"/>
       <c r="M40" s="93"/>
       <c r="N40" s="93"/>
-      <c r="O40" s="92" t="s">
+      <c r="O40" s="93" t="s">
         <v>201</v>
       </c>
       <c r="P40" s="92"/>
@@ -5262,7 +5272,7 @@
       <c r="L41" s="92"/>
       <c r="M41" s="93"/>
       <c r="N41" s="93"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="93" t="s">
         <v>204</v>
       </c>
       <c r="P41" s="92"/>
@@ -5338,7 +5348,7 @@
       <c r="L42" s="92"/>
       <c r="M42" s="93"/>
       <c r="N42" s="93"/>
-      <c r="O42" s="92" t="s">
+      <c r="O42" s="93" t="s">
         <v>205</v>
       </c>
       <c r="P42" s="92"/>
@@ -5414,7 +5424,7 @@
       <c r="L43" s="92"/>
       <c r="M43" s="93"/>
       <c r="N43" s="93"/>
-      <c r="O43" s="92" t="s">
+      <c r="O43" s="93" t="s">
         <v>208</v>
       </c>
       <c r="P43" s="92"/>
@@ -5490,7 +5500,7 @@
       <c r="L44" s="92"/>
       <c r="M44" s="93"/>
       <c r="N44" s="93"/>
-      <c r="O44" s="92" t="s">
+      <c r="O44" s="93" t="s">
         <v>209</v>
       </c>
       <c r="P44" s="92"/>
@@ -5566,7 +5576,7 @@
       <c r="L45" s="92"/>
       <c r="M45" s="93"/>
       <c r="N45" s="93"/>
-      <c r="O45" s="92" t="s">
+      <c r="O45" s="93" t="s">
         <v>210</v>
       </c>
       <c r="P45" s="92"/>
@@ -5634,7 +5644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Cofee_Tea Shops" sheetId="1" state="visible" r:id="rId2"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="214">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve">Повод: Завтрак/утренний кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
   </si>
   <si>
     <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
@@ -1537,7 +1534,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1547,7 +1544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18815400" cy="8580960"/>
+          <a:ext cx="21072960" cy="8598960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,7 +1579,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1592,7 +1589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18815400" cy="8580960"/>
+          <a:ext cx="21072960" cy="8598960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,7 +1624,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1637,7 +1634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18815400" cy="8580960"/>
+          <a:ext cx="21072960" cy="8598960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1672,7 +1669,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1948680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1682,7 +1679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18815400" cy="8580960"/>
+          <a:ext cx="21072960" cy="8598960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,9 +1715,9 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="39:45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1730,7 +1727,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.9674418604651"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1674418604651"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.6511627906977"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="77.6511627906977"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.9674418604651"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.2558139534884"/>
@@ -3715,7 +3712,6 @@
       <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="0"/>
       <c r="K23" s="77" t="n">
         <v>2</v>
       </c>
@@ -4081,7 +4077,7 @@
       <c r="Q27" s="36"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
@@ -4092,7 +4088,7 @@
         <v>102</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA27" s="36"/>
       <c r="AB27" s="36"/>
@@ -4119,7 +4115,7 @@
         <v>26</v>
       </c>
       <c r="AO27" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP27" s="38"/>
       <c r="AQ27" s="38"/>
@@ -4145,10 +4141,10 @@
       </c>
       <c r="F28" s="59"/>
       <c r="G28" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>144</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>145</v>
       </c>
       <c r="I28" s="36" t="s">
         <v>54</v>
@@ -4160,23 +4156,23 @@
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>147</v>
       </c>
       <c r="P28" s="36" t="s">
         <v>134</v>
       </c>
       <c r="Q28" s="36"/>
       <c r="R28" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S28" s="36" t="s">
         <v>55</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
@@ -4186,7 +4182,7 @@
         <v>102</v>
       </c>
       <c r="Z28" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA28" s="36"/>
       <c r="AB28" s="36"/>
@@ -4237,10 +4233,10 @@
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>150</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>151</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>54</v>
@@ -4254,11 +4250,11 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="36"/>
       <c r="R29" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S29" s="36" t="s">
         <v>55</v>
@@ -4327,10 +4323,10 @@
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="46" t="s">
         <v>153</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>154</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>107</v>
@@ -4358,7 +4354,7 @@
         <v>102</v>
       </c>
       <c r="Z30" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA30" s="36"/>
       <c r="AB30" s="36"/>
@@ -4385,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="AO30" s="75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP30" s="38"/>
       <c r="AQ30" s="38"/>
@@ -4411,10 +4407,10 @@
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="46" t="s">
         <v>156</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>157</v>
       </c>
       <c r="I31" s="36" t="s">
         <v>54</v>
@@ -4426,10 +4422,10 @@
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="80" t="s">
         <v>158</v>
-      </c>
-      <c r="O31" s="80" t="s">
-        <v>159</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36" t="s">
@@ -4450,7 +4446,7 @@
         <v>102</v>
       </c>
       <c r="Z31" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA31" s="36"/>
       <c r="AB31" s="36"/>
@@ -4478,7 +4474,7 @@
       </c>
       <c r="AO31" s="38"/>
       <c r="AP31" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ31" s="38"/>
       <c r="AR31" s="30"/>
@@ -4501,10 +4497,10 @@
       </c>
       <c r="F32" s="59"/>
       <c r="G32" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="46" t="s">
         <v>160</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>161</v>
       </c>
       <c r="I32" s="36" t="s">
         <v>54</v>
@@ -4516,10 +4512,10 @@
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
       <c r="N32" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O32" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36" t="s">
@@ -4540,7 +4536,7 @@
         <v>102</v>
       </c>
       <c r="Z32" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA32" s="36"/>
       <c r="AB32" s="36"/>
@@ -4568,7 +4564,7 @@
       </c>
       <c r="AO32" s="38"/>
       <c r="AP32" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ32" s="38"/>
       <c r="AR32" s="30"/>
@@ -4591,10 +4587,10 @@
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>163</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>164</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>54</v>
@@ -4606,23 +4602,23 @@
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>147</v>
       </c>
       <c r="P33" s="36" t="s">
         <v>134</v>
       </c>
       <c r="Q33" s="36"/>
       <c r="R33" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S33" s="36" t="s">
         <v>55</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
@@ -4632,7 +4628,7 @@
         <v>102</v>
       </c>
       <c r="Z33" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA33" s="36"/>
       <c r="AB33" s="36"/>
@@ -4679,14 +4675,14 @@
         <v>85</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" s="60"/>
       <c r="G34" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="71" t="s">
         <v>167</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>168</v>
       </c>
       <c r="I34" s="77" t="s">
         <v>107</v>
@@ -4709,7 +4705,7 @@
       <c r="W34" s="36"/>
       <c r="X34" s="36"/>
       <c r="Y34" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
@@ -4737,7 +4733,7 @@
         <v>33</v>
       </c>
       <c r="AO34" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AP34" s="0"/>
       <c r="AQ34" s="38"/>
@@ -4757,19 +4753,18 @@
         <v>85</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="I35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J35" s="0"/>
       <c r="K35" s="82" t="n">
         <v>1</v>
       </c>
@@ -4784,7 +4779,7 @@
         <v>55</v>
       </c>
       <c r="T35" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
@@ -4794,7 +4789,7 @@
         <v>57</v>
       </c>
       <c r="Z35" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA35" s="36"/>
       <c r="AB35" s="36"/>
@@ -4822,7 +4817,7 @@
       </c>
       <c r="AO35" s="38"/>
       <c r="AP35" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ35" s="38"/>
       <c r="AR35" s="30"/>
@@ -4841,19 +4836,18 @@
         <v>85</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="76" t="s">
+      <c r="I36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J36" s="0"/>
       <c r="K36" s="37" t="n">
         <v>1</v>
       </c>
@@ -4863,7 +4857,7 @@
         <v>112</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
@@ -4872,14 +4866,14 @@
         <v>55</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="36"/>
       <c r="X36" s="36"/>
       <c r="Y36" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
@@ -4898,7 +4892,7 @@
       <c r="AH36" s="36"/>
       <c r="AI36" s="36"/>
       <c r="AJ36" s="84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK36" s="37"/>
       <c r="AL36" s="37"/>
@@ -4910,7 +4904,7 @@
       </c>
       <c r="AO36" s="38"/>
       <c r="AP36" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ36" s="38"/>
       <c r="AR36" s="30"/>
@@ -4929,17 +4923,17 @@
         <v>85</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="H37" s="76" t="s">
+      <c r="I37" s="36" t="s">
         <v>183</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>184</v>
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="37" t="n">
@@ -4951,7 +4945,7 @@
         <v>112</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
@@ -4960,14 +4954,14 @@
         <v>55</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z37" s="36"/>
       <c r="AA37" s="36"/>
@@ -4986,7 +4980,7 @@
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
       <c r="AJ37" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK37" s="37"/>
       <c r="AL37" s="37"/>
@@ -4998,7 +4992,7 @@
       </c>
       <c r="AO37" s="38"/>
       <c r="AP37" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ37" s="38"/>
       <c r="AR37" s="30"/>
@@ -5019,13 +5013,13 @@
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
       <c r="G38" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="I38" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="I38" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="J38" s="85"/>
       <c r="K38" s="82"/>
@@ -5039,7 +5033,7 @@
         <v>112</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P38" s="67"/>
       <c r="Q38" s="67"/>
@@ -5055,7 +5049,7 @@
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
@@ -5084,7 +5078,7 @@
       </c>
       <c r="AO38" s="38"/>
       <c r="AP38" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ38" s="38"/>
       <c r="AR38" s="30"/>
@@ -5100,25 +5094,25 @@
         <v>44</v>
       </c>
       <c r="D39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="F39" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="G39" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="H39" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="I39" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="91" t="s">
+      <c r="J39" s="92" t="s">
         <v>194</v>
-      </c>
-      <c r="J39" s="92" t="s">
-        <v>195</v>
       </c>
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
@@ -5130,7 +5124,7 @@
       <c r="R39" s="92"/>
       <c r="S39" s="92"/>
       <c r="T39" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U39" s="92"/>
       <c r="V39" s="92"/>
@@ -5174,39 +5168,39 @@
         <v>44</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="88" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="89" t="s">
         <v>197</v>
-      </c>
-      <c r="G40" s="89" t="s">
-        <v>198</v>
       </c>
       <c r="H40" s="90" t="s">
         <v>98</v>
       </c>
       <c r="I40" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J40" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="93"/>
       <c r="N40" s="93"/>
       <c r="O40" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P40" s="92"/>
       <c r="Q40" s="92"/>
       <c r="R40" s="92"/>
       <c r="S40" s="92"/>
       <c r="T40" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U40" s="92"/>
       <c r="V40" s="92"/>
@@ -5248,39 +5242,39 @@
         <v>44</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="88" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="89" t="s">
         <v>202</v>
-      </c>
-      <c r="G41" s="89" t="s">
-        <v>203</v>
       </c>
       <c r="H41" s="90" t="s">
         <v>105</v>
       </c>
       <c r="I41" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J41" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K41" s="92"/>
       <c r="L41" s="92"/>
       <c r="M41" s="93"/>
       <c r="N41" s="93"/>
       <c r="O41" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P41" s="92"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="92"/>
       <c r="S41" s="92"/>
       <c r="T41" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U41" s="92"/>
       <c r="V41" s="92"/>
@@ -5324,39 +5318,39 @@
         <v>44</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E42" s="88" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="89" t="s">
         <v>202</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>203</v>
       </c>
       <c r="H42" s="90" t="s">
         <v>128</v>
       </c>
       <c r="I42" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J42" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K42" s="92"/>
       <c r="L42" s="92"/>
       <c r="M42" s="93"/>
       <c r="N42" s="93"/>
       <c r="O42" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P42" s="92"/>
       <c r="Q42" s="92"/>
       <c r="R42" s="92"/>
       <c r="S42" s="92"/>
       <c r="T42" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U42" s="92"/>
       <c r="V42" s="92"/>
@@ -5400,39 +5394,39 @@
         <v>44</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="88" t="s">
         <v>138</v>
       </c>
       <c r="F43" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="89" t="s">
         <v>206</v>
-      </c>
-      <c r="G43" s="89" t="s">
-        <v>207</v>
       </c>
       <c r="H43" s="90" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J43" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K43" s="92"/>
       <c r="L43" s="92"/>
       <c r="M43" s="93"/>
       <c r="N43" s="93"/>
       <c r="O43" s="93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="R43" s="92"/>
       <c r="S43" s="92"/>
       <c r="T43" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U43" s="92"/>
       <c r="V43" s="92"/>
@@ -5476,39 +5470,39 @@
         <v>44</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" s="88" t="s">
         <v>138</v>
       </c>
       <c r="F44" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="89" t="s">
-        <v>207</v>
-      </c>
       <c r="H44" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I44" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J44" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K44" s="92"/>
       <c r="L44" s="92"/>
       <c r="M44" s="93"/>
       <c r="N44" s="93"/>
       <c r="O44" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P44" s="92"/>
       <c r="Q44" s="92"/>
       <c r="R44" s="92"/>
       <c r="S44" s="92"/>
       <c r="T44" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U44" s="92"/>
       <c r="V44" s="92"/>
@@ -5552,39 +5546,39 @@
         <v>44</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45" s="88" t="s">
         <v>138</v>
       </c>
       <c r="F45" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="89" t="s">
-        <v>207</v>
-      </c>
       <c r="H45" s="90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="93" t="s">
         <v>199</v>
-      </c>
-      <c r="J45" s="93" t="s">
-        <v>200</v>
       </c>
       <c r="K45" s="92"/>
       <c r="L45" s="92"/>
       <c r="M45" s="93"/>
       <c r="N45" s="93"/>
       <c r="O45" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P45" s="92"/>
       <c r="Q45" s="92"/>
       <c r="R45" s="92"/>
       <c r="S45" s="92"/>
       <c r="T45" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U45" s="92"/>
       <c r="V45" s="92"/>
@@ -5639,7 +5633,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:45 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5667,10 +5661,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="100" t="s">
         <v>211</v>
-      </c>
-      <c r="H1" s="100" t="s">
-        <v>212</v>
       </c>
       <c r="I1" s="100" t="s">
         <v>34</v>
@@ -5679,7 +5673,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L1" s="100" t="s">
         <v>35</v>
@@ -5690,7 +5684,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -44,6 +44,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -125,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -612,10 +614,10 @@
     <t xml:space="preserve">Relax после работы: Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10108, A5B10112, A5B10111</t>
+    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 , Schweppes_Tabletent, Schweppes_Menu_2, Schweppes_Menu_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10109, A5B10112, A5B10111, A5B10108, A5B10115, A5B10113, A5B10114</t>
   </si>
   <si>
     <t xml:space="preserve">Midday socializing: Moctails</t>
@@ -627,7 +629,7 @@
     <t xml:space="preserve">Mocktails_2018</t>
   </si>
   <si>
-    <t xml:space="preserve">A5B10109</t>
+    <t xml:space="preserve">A5B10110</t>
   </si>
   <si>
     <t xml:space="preserve">Eat Out: Informal lunch</t>
@@ -941,7 +943,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,9 +967,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1091,15 +1090,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,15 +1139,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1224,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1236,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,9 +1267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1281,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,7 +1324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1371,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,19 +1404,19 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="R33" activeCellId="0" sqref="R33"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.4093023255814"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.1162790697674"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="18.953488372093"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4180,9 +4178,7 @@
         <v>162</v>
       </c>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11" t="s">
         <v>55</v>
@@ -5295,7 +5291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.8883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="216">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -421,6 +422,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">New Alco Brand</t>
@@ -1222,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1279,7 +1283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,7 +1328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1369,7 +1373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,19 +1408,19 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.1162790697674"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.5953488372093"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="19.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,7 +2856,9 @@
         <v>4607174573314</v>
       </c>
       <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="R17" s="24"/>
       <c r="S17" s="11" t="s">
         <v>55</v>
@@ -2919,10 +2925,10 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>54</v>
@@ -2934,7 +2940,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" s="24" t="n">
         <v>4607174573338</v>
@@ -3003,14 +3009,14 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>54</v>
@@ -3022,10 +3028,10 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -3041,10 +3047,10 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -3093,17 +3099,17 @@
         <v>45</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="n">
@@ -3125,10 +3131,10 @@
       <c r="W20" s="11"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -3155,7 +3161,7 @@
         <v>19</v>
       </c>
       <c r="AO20" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AP20" s="13"/>
       <c r="AQ20" s="13"/>
@@ -3177,14 +3183,14 @@
         <v>45</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>54</v>
@@ -3196,13 +3202,13 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -3210,19 +3216,19 @@
         <v>55</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
@@ -3250,7 +3256,7 @@
       </c>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ21" s="13"/>
       <c r="AR21" s="16"/>
@@ -3269,14 +3275,14 @@
         <v>45</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>54</v>
@@ -3289,30 +3295,30 @@
       <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
@@ -3340,7 +3346,7 @@
       </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ22" s="13"/>
       <c r="AR22" s="16"/>
@@ -3359,17 +3365,17 @@
         <v>45</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="11" t="n">
@@ -3378,33 +3384,33 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
@@ -3432,7 +3438,7 @@
       </c>
       <c r="AO23" s="13"/>
       <c r="AP23" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ23" s="13"/>
       <c r="AR23" s="16"/>
@@ -3451,17 +3457,17 @@
         <v>45</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="13" t="n">
@@ -3483,10 +3489,10 @@
       <c r="W24" s="11"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
@@ -3513,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="AO24" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="13"/>
@@ -3535,14 +3541,14 @@
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>54</v>
@@ -3555,10 +3561,10 @@
       <c r="M25" s="13"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -3566,17 +3572,17 @@
         <v>55</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
@@ -3604,7 +3610,7 @@
       </c>
       <c r="AO25" s="13"/>
       <c r="AP25" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="16"/>
@@ -3623,14 +3629,14 @@
         <v>45</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>54</v>
@@ -3643,30 +3649,30 @@
       <c r="M26" s="13"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W26" s="11"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
@@ -3694,7 +3700,7 @@
       </c>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AQ26" s="13"/>
       <c r="AR26" s="16"/>
@@ -3713,17 +3719,17 @@
         <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="13" t="n">
@@ -3745,10 +3751,10 @@
       <c r="W27" s="11"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
@@ -3775,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
@@ -3797,14 +3803,14 @@
         <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>54</v>
@@ -3816,33 +3822,33 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
@@ -3870,7 +3876,7 @@
       </c>
       <c r="AO28" s="13"/>
       <c r="AP28" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ28" s="13"/>
       <c r="AR28" s="16"/>
@@ -3889,14 +3895,14 @@
         <v>45</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>54</v>
@@ -3910,11 +3916,11 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>55</v>
@@ -3924,15 +3930,15 @@
       </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
@@ -3960,7 +3966,7 @@
       </c>
       <c r="AO29" s="13"/>
       <c r="AP29" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ29" s="13"/>
       <c r="AR29" s="16"/>
@@ -3979,17 +3985,17 @@
         <v>45</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="13" t="n">
@@ -4011,10 +4017,10 @@
       <c r="W30" s="11"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
@@ -4041,7 +4047,7 @@
         <v>29</v>
       </c>
       <c r="AO30" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
@@ -4063,14 +4069,14 @@
         <v>45</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>54</v>
@@ -4082,14 +4088,14 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R31" s="11"/>
       <c r="S31" s="11" t="s">
@@ -4103,10 +4109,10 @@
       <c r="W31" s="11"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
@@ -4134,7 +4140,7 @@
       </c>
       <c r="AO31" s="13"/>
       <c r="AP31" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AQ31" s="13"/>
       <c r="AR31" s="16"/>
@@ -4153,14 +4159,14 @@
         <v>45</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>54</v>
@@ -4172,10 +4178,10 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -4191,10 +4197,10 @@
       <c r="W32" s="11"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
@@ -4222,7 +4228,7 @@
       </c>
       <c r="AO32" s="13"/>
       <c r="AP32" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AQ32" s="13"/>
       <c r="AR32" s="16"/>
@@ -4241,14 +4247,14 @@
         <v>45</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>54</v>
@@ -4260,33 +4266,33 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
@@ -4333,17 +4339,17 @@
         <v>85</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="n">
@@ -4363,7 +4369,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -4391,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AP34" s="0"/>
       <c r="AQ34" s="13"/>
@@ -4411,17 +4417,17 @@
         <v>85</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="15" t="n">
@@ -4438,7 +4444,7 @@
         <v>55</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
@@ -4448,7 +4454,7 @@
         <v>57</v>
       </c>
       <c r="Z35" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
@@ -4476,7 +4482,7 @@
       </c>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ35" s="13"/>
       <c r="AR35" s="16"/>
@@ -4495,17 +4501,17 @@
         <v>85</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="13" t="n">
@@ -4514,10 +4520,10 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -4526,14 +4532,14 @@
         <v>55</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -4552,7 +4558,7 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
@@ -4564,7 +4570,7 @@
       </c>
       <c r="AO36" s="13"/>
       <c r="AP36" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ36" s="13"/>
       <c r="AR36" s="16"/>
@@ -4583,17 +4589,17 @@
         <v>85</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="13" t="n">
@@ -4602,10 +4608,10 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -4614,14 +4620,14 @@
         <v>55</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -4640,7 +4646,7 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
@@ -4652,7 +4658,7 @@
       </c>
       <c r="AO37" s="13"/>
       <c r="AP37" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ37" s="13"/>
       <c r="AR37" s="16"/>
@@ -4673,13 +4679,13 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="15"/>
@@ -4690,10 +4696,10 @@
         <v>14</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -4709,7 +4715,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
@@ -4738,7 +4744,7 @@
       </c>
       <c r="AO38" s="13"/>
       <c r="AP38" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ38" s="13"/>
       <c r="AR38" s="16"/>
@@ -4754,25 +4760,25 @@
         <v>44</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
@@ -4784,7 +4790,7 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -4827,39 +4833,39 @@
         <v>44</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -4900,39 +4906,39 @@
         <v>44</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4975,39 +4981,39 @@
         <v>44</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -5050,39 +5056,39 @@
         <v>44</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
       <c r="T43" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -5125,39 +5131,39 @@
         <v>44</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
       <c r="T44" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -5200,39 +5206,39 @@
         <v>44</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
       <c r="T45" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -5291,7 +5297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.2604651162791"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,10 +5320,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>34</v>
@@ -5326,7 +5332,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>35</v>
@@ -5337,7 +5343,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
